--- a/EmptySeatsStudy_tau/ADP_prices.xlsx
+++ b/EmptySeatsStudy_tau/ADP_prices.xlsx
@@ -487,52 +487,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.76703825139848</v>
+        <v>9.875278758583269</v>
       </c>
       <c r="B2" t="n">
-        <v>11.65896950378024</v>
+        <v>11.1718135041167</v>
       </c>
       <c r="C2" t="n">
-        <v>11.65884060203984</v>
+        <v>11.52056358108605</v>
       </c>
       <c r="D2" t="n">
-        <v>11.65807384294847</v>
+        <v>11.48844428934746</v>
       </c>
       <c r="E2" t="n">
-        <v>11.65795766996263</v>
+        <v>11.56696093603016</v>
       </c>
       <c r="F2" t="n">
-        <v>11.65793889366578</v>
+        <v>11.49549478388218</v>
       </c>
       <c r="G2" t="n">
-        <v>11.65793889366578</v>
+        <v>11.49549478388218</v>
       </c>
       <c r="H2" t="n">
-        <v>11.65786359550616</v>
+        <v>11.49082559912988</v>
       </c>
       <c r="I2" t="n">
-        <v>11.6579411544888</v>
+        <v>11.49082559912988</v>
       </c>
       <c r="J2" t="n">
-        <v>11.65782075370004</v>
+        <v>11.48562257325671</v>
       </c>
       <c r="K2" t="n">
-        <v>11.65782075370004</v>
+        <v>11.48061869333958</v>
       </c>
       <c r="L2" t="n">
-        <v>11.65785841499857</v>
+        <v>11.47825151886116</v>
       </c>
       <c r="M2" t="n">
-        <v>11.65785841499857</v>
+        <v>11.47825151886116</v>
       </c>
       <c r="N2" t="n">
-        <v>11.65784290492887</v>
+        <v>11.47825151886116</v>
       </c>
       <c r="O2" t="n">
-        <v>11.65784290492887</v>
+        <v>11.47825151886116</v>
       </c>
       <c r="P2" t="n">
-        <v>11.65778079326483</v>
+        <v>11.47224129291687</v>
       </c>
     </row>
   </sheetData>
@@ -606,52 +606,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.01728438861532</v>
+        <v>11.12543441445492</v>
       </c>
       <c r="B2" t="n">
-        <v>12.90933437037407</v>
+        <v>12.42475505608033</v>
       </c>
       <c r="C2" t="n">
-        <v>12.90945163384306</v>
+        <v>13.21772558708792</v>
       </c>
       <c r="D2" t="n">
-        <v>12.91233562865695</v>
+        <v>13.21301582274516</v>
       </c>
       <c r="E2" t="n">
-        <v>12.91263767358132</v>
+        <v>13.29159007351896</v>
       </c>
       <c r="F2" t="n">
-        <v>12.91280689613862</v>
+        <v>13.45936353687366</v>
       </c>
       <c r="G2" t="n">
-        <v>12.91280689613862</v>
+        <v>13.45936353687366</v>
       </c>
       <c r="H2" t="n">
-        <v>12.912869680027</v>
+        <v>13.47039035990326</v>
       </c>
       <c r="I2" t="n">
-        <v>12.91280503785874</v>
+        <v>13.47039035990326</v>
       </c>
       <c r="J2" t="n">
-        <v>12.91301468371797</v>
+        <v>13.46518844328395</v>
       </c>
       <c r="K2" t="n">
-        <v>12.91301468371797</v>
+        <v>13.4601717739854</v>
       </c>
       <c r="L2" t="n">
-        <v>12.91301911781855</v>
+        <v>13.473430735521</v>
       </c>
       <c r="M2" t="n">
-        <v>12.91301911781855</v>
+        <v>13.473430735521</v>
       </c>
       <c r="N2" t="n">
-        <v>12.91298959055609</v>
+        <v>13.473430735521</v>
       </c>
       <c r="O2" t="n">
-        <v>12.91298959055609</v>
+        <v>13.473430735521</v>
       </c>
       <c r="P2" t="n">
-        <v>12.91306431276012</v>
+        <v>13.50750596331332</v>
       </c>
     </row>
   </sheetData>
@@ -725,52 +725,52 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13.10037784153447</v>
+        <v>13.20860899643016</v>
       </c>
       <c r="B2" t="n">
-        <v>18.68618659860348</v>
+        <v>17.219606361892</v>
       </c>
       <c r="C2" t="n">
-        <v>18.68694654697716</v>
+        <v>19.86767014499586</v>
       </c>
       <c r="D2" t="n">
-        <v>18.69090513892161</v>
+        <v>20.05309149437508</v>
       </c>
       <c r="E2" t="n">
-        <v>18.69143261649608</v>
+        <v>20.45450915659788</v>
       </c>
       <c r="F2" t="n">
-        <v>18.69159503093137</v>
+        <v>20.87977167688081</v>
       </c>
       <c r="G2" t="n">
-        <v>18.69159503093137</v>
+        <v>20.87977167688081</v>
       </c>
       <c r="H2" t="n">
-        <v>18.6916909370195</v>
+        <v>20.90826811000095</v>
       </c>
       <c r="I2" t="n">
-        <v>18.69159187779458</v>
+        <v>20.90826811000095</v>
       </c>
       <c r="J2" t="n">
-        <v>18.69173008527853</v>
+        <v>20.94236802779674</v>
       </c>
       <c r="K2" t="n">
-        <v>18.69173008527853</v>
+        <v>20.97555152912216</v>
       </c>
       <c r="L2" t="n">
-        <v>18.69191147974506</v>
+        <v>20.98885010530651</v>
       </c>
       <c r="M2" t="n">
-        <v>18.69191147974506</v>
+        <v>20.98885010530651</v>
       </c>
       <c r="N2" t="n">
-        <v>18.69209958511989</v>
+        <v>20.98885010530651</v>
       </c>
       <c r="O2" t="n">
-        <v>18.69209958511989</v>
+        <v>20.98885010530651</v>
       </c>
       <c r="P2" t="n">
-        <v>18.69219919371877</v>
+        <v>21.02292629107764</v>
       </c>
     </row>
   </sheetData>
